--- a/_I_SecoveljskeSoline/phenodata_20230306.xlsx
+++ b/_I_SecoveljskeSoline/phenodata_20230306.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\DEJAVNOSTI\OMIKE\pISA-Projects\_p_ExtAnalysis\_I_SecoveljskeSoline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7BB37C-909B-403B-A44E-E763250E000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE72414-A706-4690-BB61-D6E0A895CC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="phenodata_20230306" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="120">
   <si>
     <t>SampleID</t>
   </si>
@@ -311,34 +311,111 @@
     <t>autumn</t>
   </si>
   <si>
-    <t>july</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>august</t>
-  </si>
-  <si>
-    <t>september</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
     <t>Sampling_month</t>
+  </si>
+  <si>
+    <t>Sample_Figure_label</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>April_1</t>
+  </si>
+  <si>
+    <t>April_2</t>
+  </si>
+  <si>
+    <t>April_3</t>
+  </si>
+  <si>
+    <t>April_4</t>
+  </si>
+  <si>
+    <t>May_1</t>
+  </si>
+  <si>
+    <t>May_2</t>
+  </si>
+  <si>
+    <t>May_3</t>
+  </si>
+  <si>
+    <t>May_4</t>
+  </si>
+  <si>
+    <t>July_1</t>
+  </si>
+  <si>
+    <t>July_2</t>
+  </si>
+  <si>
+    <t>July_3</t>
+  </si>
+  <si>
+    <t>July_4</t>
+  </si>
+  <si>
+    <t>August_1</t>
+  </si>
+  <si>
+    <t>August_2</t>
+  </si>
+  <si>
+    <t>August_3</t>
+  </si>
+  <si>
+    <t>August_4</t>
+  </si>
+  <si>
+    <t>September_1</t>
+  </si>
+  <si>
+    <t>September_2</t>
+  </si>
+  <si>
+    <t>September_3</t>
+  </si>
+  <si>
+    <t>September_4</t>
+  </si>
+  <si>
+    <t>September_5</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,6 +428,15 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -418,17 +504,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -471,20 +567,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4FE35A4-3560-4AE4-BE84-5F76CE1589C4}" name="Table1" displayName="Table1" ref="A1:L36" totalsRowShown="0">
-  <autoFilter ref="A1:L36" xr:uid="{D4FE35A4-3560-4AE4-BE84-5F76CE1589C4}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4FE35A4-3560-4AE4-BE84-5F76CE1589C4}" name="Table1" displayName="Table1" ref="A1:M36" totalsRowShown="0">
+  <autoFilter ref="A1:M36" xr:uid="{D4FE35A4-3560-4AE4-BE84-5F76CE1589C4}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9AAA9FE1-A7DF-4D1B-AC80-F693A92AE4A3}" name="SampleID"/>
     <tableColumn id="2" xr3:uid="{8DD626E9-3639-407E-915A-6342493FFAB2}" name="Sample_name"/>
-    <tableColumn id="3" xr3:uid="{44594B30-16E8-4FEB-B268-6C3AB58A9802}" name="Date_of_sampling" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{0F7FA423-3C18-4863-AE3A-9E1A1BD2A373}" name="Sampling_month" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{990FB1FE-64E7-4FCD-9AD3-B6530A5D0A3C}" name="Season" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{926D22AD-1C25-4F61-85B9-B1D6C2BCDBCC}" name="Batch_number" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2F92F6A1-1E84-407F-A7B1-96B30F895B12}" name="Sample_number_in_batch" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{043D5A34-1057-4C31-A3E0-01F98AFC823F}" name="Brine_salinity(Be)" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{57C8C22B-8F07-4EAB-BDC5-9C4BECCD7064}" name="Brine_Temperature(C)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A071CCEE-8327-4BBC-A2B0-A5C85865FE55}" name="DNA_isolation_date" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{094A65FD-0D15-41F6-AC0A-93DF5467F350}" name="Storage" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{CB10FF36-1423-4513-8BF1-FAA130F410E4}" name="Sample_Figure_label" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{44594B30-16E8-4FEB-B268-6C3AB58A9802}" name="Date_of_sampling" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{0F7FA423-3C18-4863-AE3A-9E1A1BD2A373}" name="Sampling_month" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{990FB1FE-64E7-4FCD-9AD3-B6530A5D0A3C}" name="Season" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{926D22AD-1C25-4F61-85B9-B1D6C2BCDBCC}" name="Batch_number" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2F92F6A1-1E84-407F-A7B1-96B30F895B12}" name="Sample_number_in_batch" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{043D5A34-1057-4C31-A3E0-01F98AFC823F}" name="Brine_salinity(Be)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{57C8C22B-8F07-4EAB-BDC5-9C4BECCD7064}" name="Brine_Temperature(C)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A071CCEE-8327-4BBC-A2B0-A5C85865FE55}" name="DNA_isolation_date" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{094A65FD-0D15-41F6-AC0A-93DF5467F350}" name="Storage" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{7F51C28B-5E09-4248-9CDC-A8A661DE5A20}" name="Isolation_info_files_location"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -754,27 +851,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,1360 +881,1476 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
       <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3">
         <v>20230406</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
         <v>4.5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>20</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>20230925</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3">
         <v>20230406</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>4.5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>20</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>20230925</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3">
         <v>20230406</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>4.5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>20</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>20230925</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4">
         <v>20230406</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>4.5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>20</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>20230925</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="5">
         <v>20230523</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>4.5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>21</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>20230925</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="3">
         <v>20230523</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>4.5</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>21</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>20230925</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="3">
         <v>20230523</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4.5</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20230925</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="4">
         <v>20230523</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>4</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>4.5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>21</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>20230925</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="5">
         <v>20230706</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>26</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>33</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>20230925</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="3">
         <v>20230706</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>26</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>33</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>20230925</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3">
         <v>20230706</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>26</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20230925</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3">
         <v>20230706</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>26</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>33</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>20230925</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="4">
         <v>20230706</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="E14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>26</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>33</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>20230925</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="3">
         <v>20230824</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>29.3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>32</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20230925</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="3">
         <v>20230824</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>29.3</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>32</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>20230925</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="3">
         <v>20230824</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29.3</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20230925</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="3">
         <v>20230824</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
       </c>
       <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>29.3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20230925</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="7">
         <v>20230824</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <v>4</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>29.3</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>32</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>20230925</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3">
         <v>20230921</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>32</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20230925</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="3">
         <v>20230921</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20230925</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="7">
         <v>20230921</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>5</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>3</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I22" s="7">
+      <c r="J22" s="7">
         <v>32</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>20230925</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="3">
         <v>20230824</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29.3</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>20231106</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="3">
         <v>20230824</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29.3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>20231106</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="3">
         <v>20230824</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>29.3</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>32</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>20231106</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="3">
         <v>20230824</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>29.3</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>20231106</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="7">
         <v>20230824</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="E27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <v>4</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I27" s="7">
         <v>29.3</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J27" s="7">
         <v>32</v>
       </c>
-      <c r="J27" s="9">
+      <c r="K27" s="9">
         <v>20231106</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="3">
         <v>20230706</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>26</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>33</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>20231107</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="3">
         <v>20230706</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>26</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>33</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>20231107</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="3">
         <v>20230706</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>26</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>33</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>20231107</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="3">
         <v>20230706</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>26</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>33</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>20231107</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="7">
         <v>20230706</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="7">
         <v>3</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="7">
+      <c r="I32" s="7">
         <v>26</v>
       </c>
-      <c r="I32" s="7">
+      <c r="J32" s="7">
         <v>33</v>
       </c>
-      <c r="J32" s="7">
+      <c r="K32" s="7">
         <v>20231107</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="13">
         <v>20230921</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20231122</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="7">
         <v>20230921</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="E34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F34" s="7">
-        <v>5</v>
       </c>
       <c r="G34" s="7">
         <v>5</v>
       </c>
       <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I34" s="7">
+      <c r="J34" s="7">
         <v>32</v>
       </c>
-      <c r="J34" s="7">
+      <c r="K34" s="7">
         <v>20231122</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="3">
         <v>20230824</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
       <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
         <v>29.3</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20231122</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="3">
         <v>20230706</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>3</v>
+      </c>
       <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
         <v>26</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>33</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>20231122</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="L36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
